--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorkisin2/Yandex.Disk.localized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SevSU\Web\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE388F-D900-B34F-8055-18E989066709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BEF95A-7416-4B78-B970-705C06B7E48C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -914,33 +914,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:C119"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -977,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1088,7 +1088,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1101,7 +1101,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1206,7 +1206,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1219,7 +1219,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1234,7 +1234,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1247,7 +1247,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1264,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1277,7 +1277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1292,7 +1292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1305,7 +1305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1392,7 +1392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1405,7 +1405,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1420,7 +1420,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1433,7 +1433,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1450,7 +1450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1463,7 +1463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1478,7 +1478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1491,7 +1491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1521,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1538,7 +1538,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1551,7 +1551,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1566,7 +1566,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1579,7 +1579,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1596,7 +1596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1609,7 +1609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1624,7 +1624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1637,7 +1637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
@@ -1650,17 +1650,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="6" t="s">
         <v>28</v>
@@ -1714,7 +1714,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="11" t="s">
         <v>82</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -1806,7 +1806,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -1818,7 +1818,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -1832,7 +1832,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="8"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -1844,7 +1844,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>1</v>
@@ -1872,7 +1872,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
@@ -1886,7 +1886,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -1904,7 +1904,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -1924,7 +1924,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -1940,7 +1940,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -1958,7 +1958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -1974,7 +1974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -1990,7 +1990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>1</v>
@@ -2018,7 +2018,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
@@ -2032,7 +2032,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -2050,7 +2050,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -2070,7 +2070,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -2086,7 +2086,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -2104,7 +2104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -2120,7 +2120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2136,23 +2136,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="8" t="s">
         <v>102</v>
       </c>
@@ -2160,17 +2160,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
         <v>49</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
         <v>54</v>
@@ -2208,7 +2208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
         <v>54</v>
@@ -2232,17 +2232,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>86</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="s">
         <v>99</v>
@@ -2288,7 +2288,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -2302,7 +2302,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -2318,7 +2318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -2332,7 +2332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -2346,17 +2346,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
         <v>112</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C113" s="5" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="8" t="s">
         <v>114</v>
       </c>
@@ -2380,22 +2380,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
         <v>118</v>
       </c>

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SevSU\Web\WEB_RGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorkisin2/Yandex.Disk.localized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BEF95A-7416-4B78-B970-705C06B7E48C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFECD09-5846-3B4E-865D-E19154B0FFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19820" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
   <si>
     <t>траншея</t>
   </si>
@@ -382,13 +382,16 @@
   </si>
   <si>
     <t>4000 * кол/во машин</t>
+  </si>
+  <si>
+    <t>2000 + 9000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +427,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -914,33 +924,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -955,7 +965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -977,7 +987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1088,7 +1098,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1101,7 +1111,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1118,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1131,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1146,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1159,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
@@ -1172,7 +1182,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1189,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1206,7 +1216,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1219,7 +1229,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1234,7 +1244,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1247,7 +1257,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1264,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1277,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1292,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1305,7 +1315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1345,7 +1355,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
@@ -1358,7 +1368,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1375,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1388,11 +1398,11 @@
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1401,11 +1411,11 @@
       <c r="H30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1416,11 +1426,11 @@
       <c r="H31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1429,11 +1439,11 @@
       <c r="H32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1450,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1463,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1478,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1491,7 +1501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1504,7 +1514,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1521,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1535,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="I39" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1548,10 +1558,10 @@
         <v>9</v>
       </c>
       <c r="I40" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1566,7 +1576,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1579,7 +1589,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1596,7 +1606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1609,7 +1619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1624,7 +1634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1637,7 +1647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
@@ -1650,17 +1660,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1682,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="6" t="s">
         <v>28</v>
@@ -1714,7 +1724,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1730,7 +1740,7 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1744,7 +1754,7 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1760,7 +1770,7 @@
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1774,7 +1784,7 @@
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="11" t="s">
         <v>82</v>
@@ -1792,7 +1802,7 @@
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -1806,7 +1816,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -1818,7 +1828,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -1832,7 +1842,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -1844,7 +1854,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1868,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>1</v>
@@ -1872,7 +1882,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
@@ -1886,7 +1896,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -1904,7 +1914,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -1924,7 +1934,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -1940,7 +1950,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -1958,7 +1968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -1974,7 +1984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -1990,7 +2000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2004,7 +2014,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>1</v>
@@ -2018,7 +2028,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
@@ -2032,7 +2042,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -2050,7 +2060,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -2070,7 +2080,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -2086,7 +2096,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -2104,7 +2114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -2120,7 +2130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2136,23 +2146,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="8" t="s">
         <v>102</v>
       </c>
@@ -2160,17 +2170,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C96" s="5" t="s">
         <v>49</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
         <v>54</v>
@@ -2208,7 +2218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="5" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
         <v>54</v>
@@ -2232,17 +2242,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>86</v>
       </c>
@@ -2254,7 +2264,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="s">
         <v>2</v>
@@ -2270,7 +2280,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="s">
         <v>99</v>
@@ -2288,7 +2298,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -2302,7 +2312,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -2318,7 +2328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -2332,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -2346,17 +2356,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
         <v>112</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C113" s="5" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="8" t="s">
         <v>114</v>
       </c>
@@ -2380,27 +2390,28 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C118" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="17" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorkisin2/Yandex.Disk.localized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFECD09-5846-3B4E-865D-E19154B0FFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB0AB-9391-440C-A44F-AF6BA587526D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19820" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -924,33 +924,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -965,7 +965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -987,7 +987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1098,7 +1098,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1111,7 +1111,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1199,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1216,7 +1216,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1229,7 +1229,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1244,7 +1244,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1257,7 +1257,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1274,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1287,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1302,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1315,7 +1315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1385,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1415,7 +1415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1430,7 +1430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1443,7 +1443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1460,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1473,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1488,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1501,7 +1501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1531,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1548,7 +1548,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1561,7 +1561,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1576,7 +1576,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1589,7 +1589,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1606,7 +1606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1619,7 +1619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1647,7 +1647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
@@ -1660,17 +1660,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="6" t="s">
         <v>28</v>
@@ -1724,7 +1724,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="11" t="s">
         <v>82</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -1816,7 +1816,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -1828,7 +1828,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -1842,7 +1842,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="8"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -1854,7 +1854,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>43</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="14" t="s">
         <v>1</v>
@@ -1882,7 +1882,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
@@ -1896,7 +1896,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -1914,7 +1914,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -1934,7 +1934,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -1950,7 +1950,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -1968,7 +1968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -1984,7 +1984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -2000,7 +2000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>1</v>
@@ -2028,7 +2028,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2" t="s">
@@ -2042,7 +2042,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -2060,7 +2060,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -2080,7 +2080,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -2096,7 +2096,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -2114,7 +2114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -2130,7 +2130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2146,23 +2146,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="8" t="s">
         <v>102</v>
       </c>
@@ -2170,17 +2170,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
         <v>54</v>
@@ -2218,7 +2218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
         <v>50</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
         <v>54</v>
@@ -2242,17 +2242,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>86</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="s">
         <v>2</v>
@@ -2280,7 +2280,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="s">
         <v>99</v>
@@ -2298,7 +2298,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -2312,7 +2312,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -2328,7 +2328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -2342,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -2356,17 +2356,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
         <v>112</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C113" s="5" t="s">
         <v>113</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="8" t="s">
         <v>114</v>
       </c>
@@ -2390,22 +2390,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
         <v>118</v>
       </c>

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB0AB-9391-440C-A44F-AF6BA587526D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757A68A-DB30-47C6-ACFB-F5078A6B6C1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
   <si>
     <t>траншея</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>2000 + 9000</t>
+  </si>
+  <si>
+    <t>высота 250&gt; x &gt;= 200 ширина &gt;= 160</t>
+  </si>
+  <si>
+    <t>высота &gt;= 250 ширина 160 &gt; x &gt;= 150</t>
   </si>
 </sst>
 </file>
@@ -924,15 +930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:N24"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -992,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>60</v>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757A68A-DB30-47C6-ACFB-F5078A6B6C1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79F3CD-7EEA-46D0-A824-4BD2A7F6A241}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>траншея</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>высота &gt;= 250 ширина 160 &gt; x &gt;= 150</t>
+  </si>
+  <si>
+    <t>2200 + 9000</t>
+  </si>
+  <si>
+    <t>1200 + 9000</t>
   </si>
 </sst>
 </file>
@@ -930,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,8 +1556,8 @@
       <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="7">
-        <v>2200</v>
+      <c r="I39" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
@@ -1563,8 +1569,8 @@
       <c r="H40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="7">
-        <v>2200</v>
+      <c r="I40" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
@@ -1578,8 +1584,8 @@
       <c r="H41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="7">
-        <v>1200</v>
+      <c r="I41" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
@@ -1591,8 +1597,8 @@
       <c r="H42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="7">
-        <v>1200</v>
+      <c r="I42" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79F3CD-7EEA-46D0-A824-4BD2A7F6A241}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757A68A-DB30-47C6-ACFB-F5078A6B6C1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
   <si>
     <t>траншея</t>
   </si>
@@ -391,12 +391,6 @@
   </si>
   <si>
     <t>высота &gt;= 250 ширина 160 &gt; x &gt;= 150</t>
-  </si>
-  <si>
-    <t>2200 + 9000</t>
-  </si>
-  <si>
-    <t>1200 + 9000</t>
   </si>
 </sst>
 </file>
@@ -936,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,8 +1550,8 @@
       <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>122</v>
+      <c r="I39" s="7">
+        <v>2200</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
@@ -1569,8 +1563,8 @@
       <c r="H40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>122</v>
+      <c r="I40" s="7">
+        <v>2200</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
@@ -1584,8 +1578,8 @@
       <c r="H41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>123</v>
+      <c r="I41" s="7">
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
@@ -1597,8 +1591,8 @@
       <c r="H42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>123</v>
+      <c r="I42" s="7">
+        <v>1200</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757A68A-DB30-47C6-ACFB-F5078A6B6C1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3AF30-BE67-4F70-A815-0A49D4709E0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="125">
   <si>
     <t>траншея</t>
   </si>
@@ -348,15 +348,9 @@
     <t>за Симфом</t>
   </si>
   <si>
-    <t>расстояние от симфа * 40 * 2</t>
-  </si>
-  <si>
     <t>ЮБК</t>
   </si>
   <si>
-    <t>расстояние от симфа * 40 * 2 + 3000</t>
-  </si>
-  <si>
     <t>Вывоз грунта</t>
   </si>
   <si>
@@ -391,6 +385,21 @@
   </si>
   <si>
     <t>высота &gt;= 250 ширина 160 &gt; x &gt;= 150</t>
+  </si>
+  <si>
+    <t>1500/ час * кол-во ступеней</t>
+  </si>
+  <si>
+    <t>1700/ час * кол-во ступеней</t>
+  </si>
+  <si>
+    <t>расстояние от симфа * 40 * 2 + 2000</t>
+  </si>
+  <si>
+    <t>расстояние от симфа * 40 * 2 + 5000</t>
+  </si>
+  <si>
+    <t>высота ступени</t>
   </si>
 </sst>
 </file>
@@ -930,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,12 +949,12 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="33.28515625" customWidth="1"/>
@@ -998,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>60</v>
@@ -1042,7 +1051,7 @@
         <v>106</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1067,10 +1076,10 @@
         <v>4500</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1177,7 +1186,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
@@ -1405,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1418,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2056,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>88</v>
@@ -2133,7 +2142,7 @@
         <v>76</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2149,7 +2158,7 @@
         <v>74</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -2364,17 +2373,17 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>8</v>
@@ -2382,28 +2391,28 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C113" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,7 +2422,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/рассчёт.xlsx
+++ b/рассчёт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\WEB_RGR\WEB_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3AF30-BE67-4F70-A815-0A49D4709E0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23890D19-6CE8-4893-9139-12C4F68D3DB9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19815" xr2:uid="{D0CFD5D6-FCB7-4550-B14A-3A57B37B0B96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="129">
   <si>
     <t>траншея</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>высота ступени</t>
+  </si>
+  <si>
+    <t>350 за штуку (копаемый)</t>
+  </si>
+  <si>
+    <t>400 за штуку (копаемый)</t>
+  </si>
+  <si>
+    <t>300 за штуку (копаемый и &gt; 100)</t>
+  </si>
+  <si>
+    <t>350 за штуку (копаемый и &gt; 100)</t>
   </si>
 </sst>
 </file>
@@ -939,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A3744-3FDE-49CC-90E9-B31EB53F92B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="111" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,6 +2244,12 @@
       <c r="F97" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="G97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
@@ -2255,6 +2273,12 @@
       <c r="E99" s="9"/>
       <c r="F99" s="10" t="s">
         <v>63</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
